--- a/biology/Zoologie/Aoraki_denticulata/Aoraki_denticulata.xlsx
+++ b/biology/Zoologie/Aoraki_denticulata/Aoraki_denticulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aoraki denticulata est une espèce d'opilions cyphophthalmes de la famille des Pettalidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande[1]. Elle se rencontre dans le Nord de l'île du Sud[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Zélande. Elle se rencontre dans le Nord de l'île du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2,00 mm et la femelle paratype 2,10 mm. Le mâle holotype d'Aoraki denticulata major mesure 2,63 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2,00 mm et la femelle paratype 2,10 mm. Le mâle holotype d'Aoraki denticulata major mesure 2,63 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Catalogue of Opiliones (15/04/2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Catalogue of Opiliones (15/04/2021) :
 Aoraki denticulata denticulata (Forster, 1948)
 Aoraki denticulata major (Forster, 1948)</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Rakaia denticulata par Forster en 1948. Elle est placée dans le genre Aoraki par Boyer et Giribet en 2007[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Rakaia denticulata par Forster en 1948. Elle est placée dans le genre Aoraki par Boyer et Giribet en 2007.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Forster, 1948 : « The sub-order Cyphophthalmi Simon in New Zealand. » Dominion Museum Records in Entomology, vol. 1, no 7, p. 79–119.</t>
         </is>
